--- a/resources/manage/assets/xlsx/发货模板.xlsx
+++ b/resources/manage/assets/xlsx/发货模板.xlsx
@@ -701,13 +701,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1238,14 +1238,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="5" width="22.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="22.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="108" customHeight="1" spans="1:1">
@@ -1257,22 +1258,22 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/resources/manage/assets/xlsx/发货模板.xlsx
+++ b/resources/manage/assets/xlsx/发货模板.xlsx
@@ -1238,15 +1238,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="22.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="108" customHeight="1" spans="1:1">
@@ -1258,22 +1257,22 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/resources/manage/assets/xlsx/发货模板.xlsx
+++ b/resources/manage/assets/xlsx/发货模板.xlsx
@@ -30,13 +30,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>注：导入时请删除该行</t>
     </r>
     <r>
@@ -49,9 +42,10 @@
       </rPr>
       <t xml:space="preserve">
    1.必填项：订单号、物流公司、快递单号、快递时间；
-   2.商品名称：非必填，如果不填写，则默认订单下所有商品全部发货；如果填写商品名称，则只发该商品对应的发货数量；
-   3.发货数量：非必填，如果不填写，则默认全部发货；如果填写，则只发填写的数量；发货数量填写后商品名称必填；
-   4.快递时间：必须为“年-月-日 时:分:秒”格式；比如：2022-10-10 10:00:00；不能写成2022/10/10 10:00:00或20221010 10:00:00；
+   2.关于订单号单元格格式，必须设置为文本格式
+   3.商品名称：非必填，如果不填写，则默认订单下所有商品全部发货；如果填写商品名称，则只发该商品对应的发货数量；
+   4.发货数量：非必填，如果不填写，则默认全部发货；如果填写，则只发填写的数量；发货数量填写后商品名称必填；
+   5.快递时间：必须为“年-月-日 时:分:秒”格式；比如：2022-10-10 10:00:00；不能写成2022/10/10 10:00:00或20221010 10:00:00；
 </t>
     </r>
   </si>
@@ -1238,7 +1232,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1248,10 +1242,15 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" customHeight="1" spans="1:1">
+    <row r="1" ht="108" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
